--- a/biology/Zoologie/Goéland_dominicain/Goéland_dominicain.xlsx
+++ b/biology/Zoologie/Goéland_dominicain/Goéland_dominicain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_dominicain</t>
+          <t>Goéland_dominicain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larus dominicanus
 Le Goéland dominicain (Larus dominicanus) est une espèce d'oiseaux de mer  de la famille des Laridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_dominicain</t>
+          <t>Goéland_dominicain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'équivalent austral du Goéland brun (Larus fuscus) de l'hémisphère nord et lui est semblable au point de vue taille. Cet oiseau mesure 56 cm de long en moyenne et a une envergure de 128 cm.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_dominicain</t>
+          <t>Goéland_dominicain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il réside sur les côtes d'Amérique du Sud et d'Afrique australe ; il hiverne à travers les île sub-antarctiques, du sud-est de l'Australie et de la Nouvelle-Zélande.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_dominicain</t>
+          <t>Goéland_dominicain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est principalement un oiseau côtier. Son nid est une dépression peu profonde dans la terre avec de la végétation et des plumes. La femelle pond normalement 2 ou 3 œufs. Les deux parents alimentent les jeunes poussins.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_dominicain</t>
+          <t>Goéland_dominicain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +623,14 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des cinq sous-espèces suivantes :
 Larus dominicanus austrinus J.H. Fleming 1924 ;
 Larus dominicanus dominicanus Lichtenstein 1823 ;
-Larus dominicanus judithae Jiguet 2002[1] ;
+Larus dominicanus judithae Jiguet 2002 ;
 Larus dominicanus melisandae Jiguet 2002 ;
 Larus dominicanus vetula Bruch 1853.</t>
         </is>
